--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/Angle/result2_csv/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/Angle/result2_csv/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\F\Angle\result2_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CECE286-779E-4B8A-BF43-8EE92D165D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276B495C-A7CB-4B11-9740-F7E7971DB26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{D7BEF4FA-03DB-41BA-932B-909844D042D4}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{16A1000C-68F4-4599-8AED-73B06C996ABF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD50A68B-6C33-4A8D-A5E2-E940B46328B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746EAE93-C86F-42BC-B32E-F3CEAF9765E2}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/Angle/result2_csv/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/Angle/result2_csv/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\F\Angle\result2_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276B495C-A7CB-4B11-9740-F7E7971DB26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E6FCB0-AB01-4BEA-A4BC-B0C8731F77F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{16A1000C-68F4-4599-8AED-73B06C996ABF}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{F7F61C19-9C83-4A9E-935F-D071CCC669D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746EAE93-C86F-42BC-B32E-F3CEAF9765E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89654F40-00BD-415B-9EB4-B81CF022CE16}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
